--- a/doc/planif/1924B_MiniBoiteNoire_Planif.xlsx
+++ b/doc/planif/1924B_MiniBoiteNoire_Planif.xlsx
@@ -276,13 +276,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -576,8 +576,8 @@
   </sheetPr>
   <dimension ref="B2:AL16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AL4" sqref="AL4:AL16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W27" sqref="W27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/doc/planif/1924B_MiniBoiteNoire_Planif.xlsx
+++ b/doc/planif/1924B_MiniBoiteNoire_Planif.xlsx
@@ -576,8 +576,8 @@
   </sheetPr>
   <dimension ref="B2:AL16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W27" sqref="W27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -993,11 +993,11 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
       <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
       <c r="Q8" s="17"/>
       <c r="R8" s="17"/>
       <c r="S8" s="17"/>
